--- a/results/SMR Results/gamm_smr_model_selection.xlsx
+++ b/results/SMR Results/gamm_smr_model_selection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -44,103 +44,46 @@
     <t xml:space="preserve">df.residual</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_smr ~ fish_basin + s(doy_id, by = fish_basin, bs = "cc", k = 15) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ti(doy_id, fish_basin, bs = c("cc", "fs"), k = c(15, 3)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ s(doy_id, by = fish_basin, bs = "cc", k = 15) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(15, 4)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ fish_basin + s(doy_id, by = fish_basin, bs = "cc", k = 15) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(15, 4)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ fish_basin + s(doy_id, by = fish_basin, bs = "cc", k = 15) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(15, 4)) + ti(doy_id, fish_basin, bs = c("cc", "fs"), k = c(15, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ fish_basin + s(doy_id, by = fish_basin, bs = "cc", k = 15) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(15, 4))</t>
+    <t xml:space="preserve">mean_smr ~ s(doy, bs = "cc", k = 18) + s(floy_tag, bs = c("re"), k = c(20)) + s(year, bs = c("re"), k = c(4)) + ACF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_smr ~ s(doy, bs = "cc", k = 18) + s(floy_tag, bs = c("re"), k = c(20)) + s(year, bs = c("re"), k = c(4))</t>
   </si>
   <si>
     <t xml:space="preserve">m</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_smr ~ s(doy_id, by = fish_basin, bs = "cc", k = 15) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(15, 4))</t>
+    <t xml:space="preserve">mean_smr ~ s(doy, bs = "cc", k = 18) + s(floy_tag, bs = c("re"), k = c(20))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_smr ~ s(doy, bs = "cc", k = 18) + s(year, bs = c("re"), k = c(4))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_smr ~ s(floy_tag, bs = c("re"), k = c(20)) + s(year, bs = c("re"), k = c(4))</t>
   </si>
   <si>
     <t xml:space="preserve">m3</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_smr ~ fish_basin + s(doy_id, bs = "cc", k = 15) + s(floy_tag, year, bs = c("re", "re"), k = c(15, 4))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ fish_basin + s(doy_id, by = fish_basin, bs = "cc", k = 15) + ti(doy_id, fish_basin, bs = c("cc", "fs"), k = c(15, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ fish_basin + ti(doy_id, fish_basin, bs = c("cc", "fs"), k = c(15, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ fish_basin + s(doy_id, by = fish_basin, bs = "cc", k = 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ s(doy_id, by = fish_basin, bs = "cc", k = 15) + ti(doy_id, fish_basin, bs = c("cc", "fs"), k = c(15, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ s(doy_id, bs = "cc", k = 15) + ti(doy_id, fish_basin, bs = c("cc", "fs"), k = c(15, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ s(doy_id, by = fish_basin, bs = "cc", k = 15)</t>
+    <t xml:space="preserve">mean_smr ~ s(floy_tag, bs = c("re"), k = c(20))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_smr ~ s(year, bs = c("re"), k = c(4))</t>
   </si>
   <si>
     <t xml:space="preserve">m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ s(doy_id, bs = "cc", k = 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(15, 4))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_smr ~ fish_basin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2</t>
   </si>
 </sst>
 </file>
@@ -512,28 +455,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>57.6538322257155</v>
+        <v>37.465210954469</v>
       </c>
       <c r="D2" t="n">
-        <v>-47797.4267095188</v>
+        <v>-48206.7848450704</v>
       </c>
       <c r="E2" t="n">
-        <v>95712.249417419</v>
+        <v>96490.8871070334</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.654990714699253</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>96165.1780856122</v>
+        <v>96789.1875188374</v>
       </c>
       <c r="I2" t="n">
-        <v>177.634036537954</v>
+        <v>184.599446457641</v>
       </c>
       <c r="J2" t="n">
-        <v>16527.3461677743</v>
+        <v>16547.5347890455</v>
       </c>
     </row>
     <row r="3">
@@ -544,28 +487,28 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>57.4394454755728</v>
+        <v>37.6726173465838</v>
       </c>
       <c r="D3" t="n">
-        <v>-47798.7260500479</v>
+        <v>-48645.9794410483</v>
       </c>
       <c r="E3" t="n">
-        <v>95714.8320132719</v>
+        <v>97369.5365915749</v>
       </c>
       <c r="F3" t="n">
-        <v>2.58259585291671</v>
+        <v>878.649484541427</v>
       </c>
       <c r="G3" t="n">
-        <v>0.180065942863925</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000159841176784288</v>
       </c>
       <c r="H3" t="n">
-        <v>96167.6986227009</v>
+        <v>97668.8412452255</v>
       </c>
       <c r="I3" t="n">
-        <v>177.662737827612</v>
+        <v>184.289959691076</v>
       </c>
       <c r="J3" t="n">
-        <v>16527.5605545244</v>
+        <v>16547.3273826534</v>
       </c>
     </row>
     <row r="4">
@@ -576,28 +519,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>57.4459956305896</v>
+        <v>34.8490334284066</v>
       </c>
       <c r="D4" t="n">
-        <v>-47798.8079076925</v>
+        <v>-48686.8722606667</v>
       </c>
       <c r="E4" t="n">
-        <v>95715.0074554664</v>
+        <v>97445.4886260269</v>
       </c>
       <c r="F4" t="n">
-        <v>2.75803804748284</v>
+        <v>954.601518993455</v>
       </c>
       <c r="G4" t="n">
-        <v>0.164943342436822</v>
+        <v>5.13941801310456e-208</v>
       </c>
       <c r="H4" t="n">
-        <v>96167.9193087854</v>
+        <v>97722.2864916918</v>
       </c>
       <c r="I4" t="n">
-        <v>177.664348774275</v>
+        <v>185.203878324823</v>
       </c>
       <c r="J4" t="n">
-        <v>16527.5540043694</v>
+        <v>16550.1509665716</v>
       </c>
     </row>
     <row r="5">
@@ -608,28 +551,28 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>57.7265079917778</v>
+        <v>19.62340552751</v>
       </c>
       <c r="D5" t="n">
-        <v>-48293.8897194717</v>
+        <v>-55413.8336962596</v>
       </c>
       <c r="E5" t="n">
-        <v>96705.2885858211</v>
+        <v>110869.290976404</v>
       </c>
       <c r="F5" t="n">
-        <v>993.039168402145</v>
+        <v>14378.4038693703</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51537308013875e-216</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>97158.6537952807</v>
+        <v>111029.880048214</v>
       </c>
       <c r="I5" t="n">
-        <v>176.599144843003</v>
+        <v>416.429930432569</v>
       </c>
       <c r="J5" t="n">
-        <v>16527.2734920082</v>
+        <v>16565.3765944725</v>
       </c>
     </row>
     <row r="6">
@@ -640,28 +583,28 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>57.5522590034261</v>
+        <v>21.7785644845579</v>
       </c>
       <c r="D6" t="n">
-        <v>-48294.4413049766</v>
+        <v>-58691.3490808964</v>
       </c>
       <c r="E6" t="n">
-        <v>96706.389235868</v>
+        <v>117428.520626175</v>
       </c>
       <c r="F6" t="n">
-        <v>994.139818448995</v>
+        <v>20937.6335191416</v>
       </c>
       <c r="G6" t="n">
-        <v>8.74010091317975e-217</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97159.7447191317</v>
+        <v>117605.3095121</v>
       </c>
       <c r="I6" t="n">
-        <v>176.610818009336</v>
+        <v>614.379390801893</v>
       </c>
       <c r="J6" t="n">
-        <v>16527.4477409966</v>
+        <v>16563.2214355154</v>
       </c>
     </row>
     <row r="7">
@@ -672,28 +615,28 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>57.5460330804766</v>
+        <v>18.8964779200424</v>
       </c>
       <c r="D7" t="n">
-        <v>-48294.4663597783</v>
+        <v>-58724.9126403993</v>
       </c>
       <c r="E7" t="n">
-        <v>96706.4282775558</v>
+        <v>117489.635747335</v>
       </c>
       <c r="F7" t="n">
-        <v>994.178860136832</v>
+        <v>20998.7486403016</v>
       </c>
       <c r="G7" t="n">
-        <v>8.57114125035512e-217</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>97159.7410593963</v>
+        <v>117643.229582194</v>
       </c>
       <c r="I7" t="n">
-        <v>176.611355911755</v>
+        <v>616.892583081102</v>
       </c>
       <c r="J7" t="n">
-        <v>16527.4539669195</v>
+        <v>16566.10352208</v>
       </c>
     </row>
     <row r="8">
@@ -704,348 +647,28 @@
         <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>31.9333495306705</v>
+        <v>3.87294913562238</v>
       </c>
       <c r="D8" t="n">
-        <v>-49033.9121912664</v>
+        <v>-61356.9326093185</v>
       </c>
       <c r="E8" t="n">
-        <v>98133.730055881</v>
+        <v>122723.850971654</v>
       </c>
       <c r="F8" t="n">
-        <v>2421.48063846206</v>
+        <v>26232.9638646207</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>98388.0025120765</v>
+        <v>122762.377274742</v>
       </c>
       <c r="I8" t="n">
-        <v>193.082469494386</v>
+        <v>844.572202574799</v>
       </c>
       <c r="J8" t="n">
-        <v>16553.0666504693</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>41.4566647925859</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-55145.3340086643</v>
-      </c>
-      <c r="E9" t="n">
-        <v>110375.678611095</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14663.429193676</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>110703.660276124</v>
-      </c>
-      <c r="I9" t="n">
-        <v>403.139753228918</v>
-      </c>
-      <c r="J9" t="n">
-        <v>16543.5433352074</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n">
-        <v>41.5037431083784</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-55145.5223949359</v>
-      </c>
-      <c r="E10" t="n">
-        <v>110376.223368505</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14663.9739510861</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>110704.853140481</v>
-      </c>
-      <c r="I10" t="n">
-        <v>403.148267584843</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16543.4962568916</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n">
-        <v>41.1439233123831</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-55146.3868149002</v>
-      </c>
-      <c r="E11" t="n">
-        <v>110377.83700348</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14665.5875860615</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>110706.022300119</v>
-      </c>
-      <c r="I11" t="n">
-        <v>403.190389046873</v>
-      </c>
-      <c r="J11" t="n">
-        <v>16543.8560766876</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="n">
-        <v>39.4555610918447</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-55175.4513261695</v>
-      </c>
-      <c r="E12" t="n">
-        <v>110431.911223742</v>
-      </c>
-      <c r="F12" t="n">
-        <v>14719.6618063235</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>110744.452578337</v>
-      </c>
-      <c r="I12" t="n">
-        <v>404.62658888374</v>
-      </c>
-      <c r="J12" t="n">
-        <v>16545.5444389082</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="n">
-        <v>38.3602562958392</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-55176.5436664343</v>
-      </c>
-      <c r="E13" t="n">
-        <v>110432.52094988</v>
-      </c>
-      <c r="F13" t="n">
-        <v>14720.2715324613</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>110738.98593045</v>
-      </c>
-      <c r="I13" t="n">
-        <v>404.683248709077</v>
-      </c>
-      <c r="J13" t="n">
-        <v>16546.6397437042</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="n">
-        <v>39.1428407867894</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-55176.4971609044</v>
-      </c>
-      <c r="E14" t="n">
-        <v>110434.056244904</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14721.8068274849</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>110746.803437098</v>
-      </c>
-      <c r="I14" t="n">
-        <v>404.6770880028</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16545.8571592132</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13.9211778417183</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-55481.7083598237</v>
-      </c>
-      <c r="E15" t="n">
-        <v>110993.330482324</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15281.0810649051</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>111108.741577051</v>
-      </c>
-      <c r="I15" t="n">
-        <v>419.824678487696</v>
-      </c>
-      <c r="J15" t="n">
-        <v>16571.0788221583</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.9211778417183</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-55481.7083598237</v>
-      </c>
-      <c r="E16" t="n">
-        <v>110993.330482324</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15281.0810649051</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>111108.741577051</v>
-      </c>
-      <c r="I16" t="n">
-        <v>419.824678487696</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16571.0788221583</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="n">
-        <v>18.8890516327297</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-58724.8772576154</v>
-      </c>
-      <c r="E17" t="n">
-        <v>117489.57687431</v>
-      </c>
-      <c r="F17" t="n">
-        <v>21777.3274568908</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>117643.216592108</v>
-      </c>
-      <c r="I17" t="n">
-        <v>616.885483473044</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16566.1109483673</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-61382.269667138</v>
-      </c>
-      <c r="E18" t="n">
-        <v>122772.539334276</v>
-      </c>
-      <c r="F18" t="n">
-        <v>27060.2899168571</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>122803.404350082</v>
-      </c>
-      <c r="I18" t="n">
-        <v>847.155346527063</v>
-      </c>
-      <c r="J18" t="n">
-        <v>16582</v>
+        <v>16581.1270508644</v>
       </c>
     </row>
   </sheetData>
